--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid-Post\IdeaProjects\TekSchoolRestAssured\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333B8C6F-3EF1-41A3-97F5-5A761D28F1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7336C9E7-0409-4027-AB49-4D4734CC1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
+    <workbookView xWindow="24240" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -59,38 +60,14 @@
     <t>inactive</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>gfhfgh</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t>kkkkkkkkkkkkkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>lllllllllllllllllllllllllll</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhhhhh@gmail.com</t>
-  </si>
-  <si>
-    <t>afdjjjjjjjjjjjjjja@gmail.com</t>
-  </si>
-  <si>
-    <t>asdfjjjjjjjjjjjjjjjjjjjjjjjjjjjjjasfdasfdsadf@gmail.com</t>
-  </si>
-  <si>
-    <t>ajlfsjjjjjjjjjjjjjjjjjjjjjjjjjjjlksajflkajl@gmail.com</t>
+    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,20 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.8000000000000007"/>
       <color rgb="FFFF0000"/>
@@ -133,6 +96,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,24 +120,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,96 +467,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C902B-1C4B-44E6-A8BA-83286E81FEE9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Vpkgid</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="str">
+        <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
+        <v>nam451@gmail.com</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Hwhdtl</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4" t="str">
+        <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
+        <v>nam804@gmail.com</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="str">
+        <f t="shared" ref="A3:A8" ca="1" si="0">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Iysmco</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
+        <v>nam767@gmail.com</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ammcjn</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
+        <v>nam689@gmail.com</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Lgdbrn</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="4" t="str">
+        <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
+        <v>name761@gmail.com</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Uskkev</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
+        <v>nam624@gmail.com</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Edhota</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
+        <v>nam241@gmail.com</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{99790ECC-8BF4-419E-9FD1-36A9CD12C033}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{983C0EFF-45E7-420D-B941-5D7F327F0D5A}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{27D676B6-320C-4A05-999A-0A2A8B10AF07}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{5F3AF393-A7FF-49DB-A53F-1764E6B0D41A}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4595A6B5-9762-43A6-B8EB-EDE0EF32A43E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Czdscr</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid-Post\IdeaProjects\TekSchoolRestAssured\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7336C9E7-0409-4027-AB49-4D4734CC1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397ECCF5-AA48-4625-A34C-E508284D8C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
+    <workbookView xWindow="24240" yWindow="1500" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -61,12 +61,55 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>7578491</t>
+  </si>
+  <si>
+    <t>7578492</t>
+  </si>
+  <si>
+    <t>7578493</t>
+  </si>
+  <si>
+    <t>7578494</t>
+  </si>
+  <si>
+    <t>7578495</t>
+  </si>
+  <si>
+    <t>7578496</t>
+  </si>
+  <si>
+    <t>7578497</t>
+  </si>
+  <si>
+    <t>7578498</t>
+  </si>
+  <si>
+    <t>7578499</t>
+  </si>
+  <si>
+    <t>7578500</t>
+  </si>
+  <si>
+    <t>7578501</t>
+  </si>
+  <si>
+    <t>7578502</t>
+  </si>
+  <si>
+    <t>7578503</t>
+  </si>
+  <si>
+    <t>7578504</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -469,15 +512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C902B-1C4B-44E6-A8BA-83286E81FEE9}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.5546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.5546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -495,112 +538,112 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="str">
+      <c r="A2" t="str" s="0">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Vpkgid</v>
+        <v>Ljjbyw</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam451@gmail.com</v>
+        <v>name491@gmail.com</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="str">
+      <c r="A3" t="str" s="0">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Hwhdtl</v>
+        <v>Edbgdy</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam804@gmail.com</v>
+        <v>nam741@gmail.com</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="str">
-        <f t="shared" ref="A3:A8" ca="1" si="0">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Iysmco</v>
+      <c r="A4" t="str" s="0">
+        <f t="shared" ref="A4:A8" ca="1" si="0">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Cusqkw</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam767@gmail.com</v>
+        <v>nam387@gmail.com</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="str">
+      <c r="A5" t="str" s="0">
         <f t="shared" ca="1" si="0"/>
-        <v>Ammcjn</v>
+        <v>Xgyppc</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam689@gmail.com</v>
+        <v>nam471@gmail.com</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="str">
+      <c r="A6" t="str" s="0">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Lgdbrn</v>
+        <v>Rcuoqy</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name761@gmail.com</v>
+        <v>nam180@gmail.com</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="str">
+      <c r="A7" t="str" s="0">
         <f t="shared" ca="1" si="0"/>
-        <v>Uskkev</v>
+        <v>Vkikhc</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam624@gmail.com</v>
+        <v>name467@gmail.com</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="str">
+      <c r="A8" t="str" s="0">
         <f t="shared" ca="1" si="0"/>
-        <v>Edhota</v>
+        <v>Xsgwtx</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam241@gmail.com</v>
+        <v>name201@gmail.com</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -614,16 +657,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4595A6B5-9762-43A6-B8EB-EDE0EF32A43E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="str">
-        <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Czdscr</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +103,48 @@
   </si>
   <si>
     <t>7578504</t>
+  </si>
+  <si>
+    <t>7578877</t>
+  </si>
+  <si>
+    <t>7578878</t>
+  </si>
+  <si>
+    <t>7578879</t>
+  </si>
+  <si>
+    <t>7578880</t>
+  </si>
+  <si>
+    <t>7578881</t>
+  </si>
+  <si>
+    <t>7578882</t>
+  </si>
+  <si>
+    <t>7578883</t>
+  </si>
+  <si>
+    <t>7578884</t>
+  </si>
+  <si>
+    <t>7578885</t>
+  </si>
+  <si>
+    <t>7578886</t>
+  </si>
+  <si>
+    <t>7578887</t>
+  </si>
+  <si>
+    <t>7578888</t>
+  </si>
+  <si>
+    <t>7578889</t>
+  </si>
+  <si>
+    <t>7578890</t>
   </si>
 </sst>
 </file>
@@ -657,7 +699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4595A6B5-9762-43A6-B8EB-EDE0EF32A43E}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -735,6 +777,76 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>7578504</t>
+  </si>
+  <si>
+    <t>7578563</t>
+  </si>
+  <si>
+    <t>7578564</t>
+  </si>
+  <si>
+    <t>7578565</t>
+  </si>
+  <si>
+    <t>7578566</t>
+  </si>
+  <si>
+    <t>7578567</t>
+  </si>
+  <si>
+    <t>7578568</t>
   </si>
 </sst>
 </file>
@@ -657,7 +675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4595A6B5-9762-43A6-B8EB-EDE0EF32A43E}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -735,6 +753,36 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid-Post\IdeaProjects\TekSchoolRestAssured\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397ECCF5-AA48-4625-A34C-E508284D8C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA37E26-6869-4486-AB5B-F57867112FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="1500" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
+    <workbookView xWindow="24252" yWindow="996" windowWidth="17280" windowHeight="8880" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -121,13 +121,21 @@
   </si>
   <si>
     <t>7578568</t>
+  </si>
+  <si>
+    <t>asfdas</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>aasdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -528,17 +536,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C902B-1C4B-44E6-A8BA-83286E81FEE9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="31.5546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.21875"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -556,115 +564,140 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="str" s="0">
+      <c r="A2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Ljjbyw</v>
+        <v>Ulvmie</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name491@gmail.com</v>
+        <v>nam599@gmail.com</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="str" s="0">
+      <c r="A3" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Edbgdy</v>
+        <v>Xlbutg</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam741@gmail.com</v>
+        <v>nam199@gmail.com</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="str" s="0">
+      <c r="A4" t="str">
         <f t="shared" ref="A4:A8" ca="1" si="0">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Cusqkw</v>
+        <v>Onlmgw</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam387@gmail.com</v>
+        <v>nam186@gmail.com</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="str" s="0">
+      <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Xgyppc</v>
+        <v>Wdzvag</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam471@gmail.com</v>
+        <v>nam631@gmail.com</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="str" s="0">
+      <c r="A6" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Rcuoqy</v>
+        <v>Vytmeu</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam180@gmail.com</v>
+        <v>name409@gmail.com</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="str" s="0">
+      <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Vkikhc</v>
+        <v>Vjhcct</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name467@gmail.com</v>
+        <v>nam603@gmail.com</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="str" s="0">
+      <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Xsgwtx</v>
+        <v>Omhroj</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name201@gmail.com</v>
+        <v>name697@gmail.com</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -677,109 +710,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4595A6B5-9762-43A6-B8EB-EDE0EF32A43E}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>

--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid-Post\IdeaProjects\TekSchoolRestAssured\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397ECCF5-AA48-4625-A34C-E508284D8C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82377A99-EE2F-4112-B71C-895F6BF330E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="1500" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
+    <workbookView xWindow="24252" yWindow="996" windowWidth="17280" windowHeight="8880" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -127,7 +127,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -528,17 +527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C902B-1C4B-44E6-A8BA-83286E81FEE9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="31.5546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.5546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.21875"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -556,115 +555,145 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="str" s="0">
+      <c r="A2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Ljjbyw</v>
+        <v>Uagiyg</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name491@gmail.com</v>
+        <v>nam692@gmail.com</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="str" s="0">
+      <c r="A3" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Edbgdy</v>
+        <v>Crivxs</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam741@gmail.com</v>
+        <v>nam442@gmail.com</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="str" s="0">
+      <c r="A4" t="str">
         <f t="shared" ref="A4:A8" ca="1" si="0">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Cusqkw</v>
+        <v>Cdskhn</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam387@gmail.com</v>
+        <v>nam880@gmail.com</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="str" s="0">
+      <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Xgyppc</v>
+        <v>Iaoqwi</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam471@gmail.com</v>
+        <v>nam649@gmail.com</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="str" s="0">
+      <c r="A6" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Rcuoqy</v>
+        <v>Fcegwk</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam180@gmail.com</v>
+        <v>nam524@gmail.com</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="str" s="0">
+      <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Vkikhc</v>
+        <v>Bbrqcc</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name467@gmail.com</v>
+        <v>name230@gmail.com</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="str" s="0">
+      <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Xsgwtx</v>
+        <v>Zoacjb</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name201@gmail.com</v>
+        <v>name108@gmail.com</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -677,109 +706,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4595A6B5-9762-43A6-B8EB-EDE0EF32A43E}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>

--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamid-Post\IdeaProjects\TekSchoolRestAssured\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA37E26-6869-4486-AB5B-F57867112FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450331A7-C44F-40C9-9D1F-0B27438E5E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24252" yWindow="996" windowWidth="17280" windowHeight="8880" xr2:uid="{5BBCAD0C-BCBD-41A2-9AA6-2EFDB496F92E}"/>
   </bookViews>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C902B-1C4B-44E6-A8BA-83286E81FEE9}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -566,14 +566,14 @@
     <row r="2" spans="1:4">
       <c r="A2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Ulvmie</v>
+        <v>Snvmjv</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam599@gmail.com</v>
+        <v>nam623@gmail.com</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -582,14 +582,14 @@
     <row r="3" spans="1:4">
       <c r="A3" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Xlbutg</v>
+        <v>Jyqgft</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam199@gmail.com</v>
+        <v>name841@gmail.com</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -598,14 +598,14 @@
     <row r="4" spans="1:4">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A8" ca="1" si="0">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Onlmgw</v>
+        <v>Vwynzr</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam186@gmail.com</v>
+        <v>name314@gmail.com</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -614,14 +614,14 @@
     <row r="5" spans="1:4">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Wdzvag</v>
+        <v>Lhdnbg</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam631@gmail.com</v>
+        <v>nam234@gmail.com</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -630,14 +630,14 @@
     <row r="6" spans="1:4">
       <c r="A6" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
-        <v>Vytmeu</v>
+        <v>Vvgsur</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name409@gmail.com</v>
+        <v>nam129@gmail.com</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -646,14 +646,14 @@
     <row r="7" spans="1:4">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Vjhcct</v>
+        <v>Dqetir</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>nam603@gmail.com</v>
+        <v>name453@gmail.com</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -662,14 +662,14 @@
     <row r="8" spans="1:4">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Omhroj</v>
+        <v>Homhel</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="str">
         <f ca="1">LOWER(LEFT(A1, RANDBETWEEN(3, LEN(A1)))) &amp; RANDBETWEEN(100,999) &amp; "@gmail.com"</f>
-        <v>name697@gmail.com</v>
+        <v>name226@gmail.com</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -698,6 +698,26 @@
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2345</v>
       </c>
     </row>
   </sheetData>
